--- a/SchedulingData/static7/pso/scheduling1_2.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_2.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.8</v>
+        <v>69.84</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="3">
@@ -485,74 +485,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60.6</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>25.14</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>20.54</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>69.84</v>
       </c>
       <c r="D5" t="n">
-        <v>54.7</v>
+        <v>119.42</v>
       </c>
       <c r="E5" t="n">
-        <v>26.72</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>71.09999999999999</v>
+        <v>110.92</v>
       </c>
       <c r="E6" t="n">
-        <v>25.06</v>
+        <v>22.228</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54.7</v>
+        <v>110.92</v>
       </c>
       <c r="D7" t="n">
-        <v>122.66</v>
+        <v>181.52</v>
       </c>
       <c r="E7" t="n">
-        <v>23.024</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60.6</v>
+        <v>119.42</v>
       </c>
       <c r="D8" t="n">
-        <v>119.64</v>
+        <v>175.96</v>
       </c>
       <c r="E8" t="n">
-        <v>20.876</v>
+        <v>19.804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>122.66</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>193.06</v>
+        <v>118.82</v>
       </c>
       <c r="E9" t="n">
-        <v>20.104</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="10">
@@ -618,150 +618,150 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>119.64</v>
+        <v>118.82</v>
       </c>
       <c r="D10" t="n">
-        <v>179.74</v>
+        <v>204.08</v>
       </c>
       <c r="E10" t="n">
-        <v>16.976</v>
+        <v>18.472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>69.90000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="E11" t="n">
-        <v>27.64</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>140.76</v>
+        <v>49.44</v>
       </c>
       <c r="E12" t="n">
-        <v>23.664</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>179.74</v>
+        <v>181.52</v>
       </c>
       <c r="D13" t="n">
-        <v>235.2</v>
+        <v>258.02</v>
       </c>
       <c r="E13" t="n">
-        <v>12.56</v>
+        <v>14.208</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>258.02</v>
       </c>
       <c r="D14" t="n">
-        <v>78.28</v>
+        <v>304.78</v>
       </c>
       <c r="E14" t="n">
-        <v>24.852</v>
+        <v>10.672</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>71.09999999999999</v>
+        <v>49.44</v>
       </c>
       <c r="D15" t="n">
-        <v>140.66</v>
+        <v>118.94</v>
       </c>
       <c r="E15" t="n">
-        <v>20.744</v>
+        <v>21.416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>235.2</v>
+        <v>118.94</v>
       </c>
       <c r="D16" t="n">
-        <v>284.04</v>
+        <v>175.14</v>
       </c>
       <c r="E16" t="n">
-        <v>9.295999999999999</v>
+        <v>17.416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>140.66</v>
+        <v>204.08</v>
       </c>
       <c r="D17" t="n">
-        <v>188.46</v>
+        <v>256.2</v>
       </c>
       <c r="E17" t="n">
-        <v>16.604</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="18">
@@ -770,36 +770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>157.2</v>
+        <v>175.96</v>
       </c>
       <c r="D18" t="n">
-        <v>220.4</v>
+        <v>267.32</v>
       </c>
       <c r="E18" t="n">
-        <v>16.82</v>
+        <v>16.268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>220.4</v>
+        <v>256.2</v>
       </c>
       <c r="D19" t="n">
-        <v>265.16</v>
+        <v>308.9</v>
       </c>
       <c r="E19" t="n">
-        <v>13.964</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="20">
@@ -808,131 +808,131 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>284.04</v>
+        <v>308.9</v>
       </c>
       <c r="D20" t="n">
-        <v>350.8</v>
+        <v>362.54</v>
       </c>
       <c r="E20" t="n">
-        <v>5.76</v>
+        <v>7.516</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.28</v>
+        <v>362.54</v>
       </c>
       <c r="D21" t="n">
-        <v>133.18</v>
+        <v>408.16</v>
       </c>
       <c r="E21" t="n">
-        <v>21.492</v>
+        <v>4.084</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>140.76</v>
+        <v>175.14</v>
       </c>
       <c r="D22" t="n">
-        <v>203.88</v>
+        <v>237.24</v>
       </c>
       <c r="E22" t="n">
-        <v>20.472</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>203.88</v>
+        <v>408.16</v>
       </c>
       <c r="D23" t="n">
-        <v>289.8</v>
+        <v>461.48</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>193.06</v>
+        <v>461.48</v>
       </c>
       <c r="D24" t="n">
-        <v>247.8</v>
+        <v>546.5</v>
       </c>
       <c r="E24" t="n">
-        <v>16.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>289.8</v>
+        <v>46.7</v>
       </c>
       <c r="D25" t="n">
-        <v>342.7</v>
+        <v>122.4</v>
       </c>
       <c r="E25" t="n">
-        <v>11.84</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>265.16</v>
+        <v>122.4</v>
       </c>
       <c r="D26" t="n">
-        <v>306.8</v>
+        <v>168.9</v>
       </c>
       <c r="E26" t="n">
-        <v>10.94</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="27">
@@ -941,131 +941,131 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>306.8</v>
+        <v>267.32</v>
       </c>
       <c r="D27" t="n">
-        <v>388.84</v>
+        <v>348.72</v>
       </c>
       <c r="E27" t="n">
-        <v>7.816</v>
+        <v>12.748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>388.84</v>
+        <v>168.9</v>
       </c>
       <c r="D28" t="n">
-        <v>434.94</v>
+        <v>231.68</v>
       </c>
       <c r="E28" t="n">
-        <v>4.336</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>247.8</v>
+        <v>231.68</v>
       </c>
       <c r="D29" t="n">
-        <v>288.84</v>
+        <v>269.38</v>
       </c>
       <c r="E29" t="n">
-        <v>13.796</v>
+        <v>9.272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>350.8</v>
+        <v>304.78</v>
       </c>
       <c r="D30" t="n">
-        <v>388.5</v>
+        <v>354.84</v>
       </c>
       <c r="E30" t="n">
-        <v>3.12</v>
+        <v>8.295999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>388.5</v>
+        <v>354.84</v>
       </c>
       <c r="D31" t="n">
-        <v>459.16</v>
+        <v>458.28</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>4.032</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>459.16</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>537.08</v>
+        <v>48.98</v>
       </c>
       <c r="E32" t="n">
-        <v>26.348</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>188.46</v>
+        <v>348.72</v>
       </c>
       <c r="D33" t="n">
-        <v>253.06</v>
+        <v>402.32</v>
       </c>
       <c r="E33" t="n">
-        <v>11.284</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="34">
@@ -1074,36 +1074,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>253.06</v>
+        <v>269.38</v>
       </c>
       <c r="D34" t="n">
-        <v>318.46</v>
+        <v>308.58</v>
       </c>
       <c r="E34" t="n">
-        <v>7.364</v>
+        <v>5.992</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>318.46</v>
+        <v>237.24</v>
       </c>
       <c r="D35" t="n">
-        <v>381.78</v>
+        <v>307.74</v>
       </c>
       <c r="E35" t="n">
-        <v>3.672</v>
+        <v>8.396000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1112,55 +1112,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>381.78</v>
+        <v>308.58</v>
       </c>
       <c r="D36" t="n">
-        <v>439.18</v>
+        <v>371.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.032</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>439.18</v>
+        <v>48.98</v>
       </c>
       <c r="D37" t="n">
-        <v>509.02</v>
+        <v>125.22</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>22.748</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>288.84</v>
+        <v>125.22</v>
       </c>
       <c r="D38" t="n">
-        <v>355.38</v>
+        <v>209.38</v>
       </c>
       <c r="E38" t="n">
-        <v>9.272</v>
+        <v>18.432</v>
       </c>
     </row>
     <row r="39">
@@ -1173,51 +1173,51 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>133.18</v>
+        <v>307.74</v>
       </c>
       <c r="D39" t="n">
-        <v>223.06</v>
+        <v>392.62</v>
       </c>
       <c r="E39" t="n">
-        <v>17.124</v>
+        <v>4.028</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>342.7</v>
+        <v>392.62</v>
       </c>
       <c r="D40" t="n">
-        <v>408.12</v>
+        <v>467.82</v>
       </c>
       <c r="E40" t="n">
-        <v>8.407999999999999</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>537.08</v>
+        <v>467.82</v>
       </c>
       <c r="D41" t="n">
-        <v>584</v>
+        <v>549.26</v>
       </c>
       <c r="E41" t="n">
-        <v>23.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,60 +1226,60 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>408.12</v>
+        <v>209.38</v>
       </c>
       <c r="D42" t="n">
-        <v>477.3</v>
+        <v>267.18</v>
       </c>
       <c r="E42" t="n">
-        <v>4.58</v>
+        <v>14.272</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>355.38</v>
+        <v>267.18</v>
       </c>
       <c r="D43" t="n">
-        <v>410.44</v>
+        <v>327.04</v>
       </c>
       <c r="E43" t="n">
-        <v>6.896</v>
+        <v>11.416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>434.94</v>
+        <v>327.04</v>
       </c>
       <c r="D44" t="n">
-        <v>512</v>
+        <v>382.54</v>
       </c>
       <c r="E44" t="n">
-        <v>1.74</v>
+        <v>7.496</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>512</v>
+        <v>371.5</v>
       </c>
       <c r="D45" t="n">
-        <v>605.12</v>
+        <v>458.4</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>477.3</v>
+        <v>458.4</v>
       </c>
       <c r="D46" t="n">
-        <v>565.8</v>
+        <v>524.76</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="47">
@@ -1321,74 +1321,74 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>565.8</v>
+        <v>382.54</v>
       </c>
       <c r="D47" t="n">
-        <v>641.2</v>
+        <v>457.76</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>4.584</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>410.44</v>
+        <v>524.76</v>
       </c>
       <c r="D48" t="n">
-        <v>480.34</v>
+        <v>590.0599999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>3.536</v>
+        <v>23.104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>223.06</v>
+        <v>457.76</v>
       </c>
       <c r="D49" t="n">
-        <v>299.06</v>
+        <v>520.28</v>
       </c>
       <c r="E49" t="n">
-        <v>13.124</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>605.12</v>
+        <v>520.28</v>
       </c>
       <c r="D50" t="n">
-        <v>677.22</v>
+        <v>619.8200000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>26.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1397,55 +1397,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>584</v>
+        <v>546.5</v>
       </c>
       <c r="D51" t="n">
-        <v>622.58</v>
+        <v>606.3</v>
       </c>
       <c r="E51" t="n">
-        <v>20.548</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>641.2</v>
+        <v>402.32</v>
       </c>
       <c r="D52" t="n">
-        <v>687.12</v>
+        <v>439.44</v>
       </c>
       <c r="E52" t="n">
-        <v>27.088</v>
+        <v>5.956</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>299.06</v>
+        <v>619.8200000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>362.96</v>
+        <v>685.86</v>
       </c>
       <c r="E53" t="n">
-        <v>9.343999999999999</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="54">
@@ -1454,74 +1454,74 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>622.58</v>
+        <v>606.3</v>
       </c>
       <c r="D54" t="n">
-        <v>669.6</v>
+        <v>674.16</v>
       </c>
       <c r="E54" t="n">
-        <v>17.476</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>362.96</v>
+        <v>439.44</v>
       </c>
       <c r="D55" t="n">
-        <v>429.76</v>
+        <v>484.34</v>
       </c>
       <c r="E55" t="n">
-        <v>5.264</v>
+        <v>2.596</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>687.12</v>
+        <v>484.34</v>
       </c>
       <c r="D56" t="n">
-        <v>735.86</v>
+        <v>546.6</v>
       </c>
       <c r="E56" t="n">
-        <v>23.344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>480.34</v>
+        <v>546.6</v>
       </c>
       <c r="D57" t="n">
-        <v>550.5599999999999</v>
+        <v>643.2</v>
       </c>
       <c r="E57" t="n">
-        <v>0.624</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1530,112 +1530,112 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>550.5599999999999</v>
+        <v>458.28</v>
       </c>
       <c r="D58" t="n">
-        <v>631.11</v>
+        <v>495.92</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>677.22</v>
+        <v>495.92</v>
       </c>
       <c r="D59" t="n">
-        <v>738.76</v>
+        <v>571.1</v>
       </c>
       <c r="E59" t="n">
-        <v>23.896</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>429.76</v>
+        <v>571.1</v>
       </c>
       <c r="D60" t="n">
-        <v>495.86</v>
+        <v>651</v>
       </c>
       <c r="E60" t="n">
-        <v>1.744</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>495.86</v>
+        <v>651</v>
       </c>
       <c r="D61" t="n">
-        <v>564.27</v>
+        <v>739.7</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>509.02</v>
+        <v>549.26</v>
       </c>
       <c r="D62" t="n">
-        <v>585.6799999999999</v>
+        <v>615.9</v>
       </c>
       <c r="E62" t="n">
-        <v>26.464</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>585.6799999999999</v>
+        <v>685.86</v>
       </c>
       <c r="D63" t="n">
-        <v>675.78</v>
+        <v>760.5599999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>21.524</v>
+        <v>23.676</v>
       </c>
     </row>
   </sheetData>
